--- a/com.yrtech.bentleyAPI/com.yrtech.InventoryAPI/Content/Excel/MonthSaleImport.xlsx
+++ b/com.yrtech.bentleyAPI/com.yrtech.InventoryAPI/Content/Excel/MonthSaleImport.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23835" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="我的工作表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="List_Model">Sheet1!$C$3:$C$7</definedName>
-    <definedName name="List_Type">Sheet1!$B$3:$B$17</definedName>
+    <definedName name="List_Model">#REF!</definedName>
+    <definedName name="List_Type">#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>DealerName</t>
   </si>
@@ -43,80 +42,14 @@
   </si>
   <si>
     <t>金额</t>
-  </si>
-  <si>
-    <t>活动类型</t>
-  </si>
-  <si>
-    <t>车型</t>
-  </si>
-  <si>
-    <t>动态路演</t>
-  </si>
-  <si>
-    <t>SUV</t>
-  </si>
-  <si>
-    <t>静态展示</t>
-  </si>
-  <si>
-    <t>GT</t>
-  </si>
-  <si>
-    <t>主题活动</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
-    <t>展厅推广</t>
-  </si>
-  <si>
-    <t>MUL</t>
-  </si>
-  <si>
-    <t>新车发布</t>
-  </si>
-  <si>
-    <t>Full Model</t>
-  </si>
-  <si>
-    <t>品牌合作</t>
-  </si>
-  <si>
-    <t>车展</t>
-  </si>
-  <si>
-    <t>金融政策</t>
-  </si>
-  <si>
-    <t>数字营销传播</t>
-  </si>
-  <si>
-    <t>广告及宣传</t>
-  </si>
-  <si>
-    <t>C@B及线索管理</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>汽车之家线索获取</t>
-  </si>
-  <si>
-    <t>爱卡汽车线索获取</t>
-  </si>
-  <si>
-    <t>易车网线索获取</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -154,18 +87,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -226,14 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -244,17 +170,17 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -262,12 +188,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -536,7 +462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BR3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
@@ -545,110 +471,110 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.42578125" style="4" customWidth="1"/>
-    <col min="3" max="4" width="20" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="23.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="20" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" hidden="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:70" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:70" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
-      <c r="AZ2" s="5"/>
-      <c r="BA2" s="5"/>
-      <c r="BB2" s="5"/>
-      <c r="BC2" s="5"/>
-      <c r="BD2" s="5"/>
-      <c r="BE2" s="5"/>
-      <c r="BF2" s="5"/>
-      <c r="BG2" s="5"/>
-      <c r="BH2" s="5"/>
-      <c r="BI2" s="5"/>
-      <c r="BJ2" s="5"/>
-      <c r="BK2" s="5"/>
-      <c r="BL2" s="5"/>
-      <c r="BM2" s="5"/>
-      <c r="BN2" s="5"/>
-      <c r="BO2" s="5"/>
-      <c r="BP2" s="5"/>
-      <c r="BQ2" s="5"/>
-      <c r="BR2" s="5"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="4"/>
+      <c r="BF2" s="4"/>
+      <c r="BG2" s="4"/>
+      <c r="BH2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="BR2" s="4"/>
     </row>
     <row r="3" spans="1:70">
-      <c r="A3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -656,119 +582,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>